--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324088.2384508347</v>
+        <v>319560.9109516775</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="F4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="G4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="H4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="I4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="J4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="K4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="L4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="M4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="N4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="O4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="P4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10120.89759149028</v>
+        <v>9375.362212578548</v>
       </c>
       <c r="C6" t="n">
-        <v>10120.89759149028</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="D6" t="n">
-        <v>10120.89759149028</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="E6" t="n">
-        <v>-62705.47527466775</v>
+        <v>-63147.28336461778</v>
       </c>
       <c r="F6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="G6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="H6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="I6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="J6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="K6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="L6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="M6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="N6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="O6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
       <c r="P6" t="n">
-        <v>70394.52472533232</v>
+        <v>69952.71663538222</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>319560.9109516775</v>
+        <v>333287.2690890958</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578548</v>
+        <v>9375.362212578577</v>
       </c>
       <c r="C6" t="n">
         <v>9375.362212578562</v>
@@ -26528,40 +26530,40 @@
         <v>9375.362212578562</v>
       </c>
       <c r="E6" t="n">
-        <v>-63147.28336461778</v>
+        <v>-63147.28336461783</v>
       </c>
       <c r="F6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="G6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="H6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="I6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="J6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="K6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="L6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="M6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="N6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="O6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
       <c r="P6" t="n">
-        <v>69952.71663538222</v>
+        <v>69952.71663538224</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333287.2690890958</v>
+        <v>208177.3702916192</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578577</v>
+        <v>-5775.311757456217</v>
       </c>
       <c r="C6" t="n">
-        <v>9375.362212578562</v>
+        <v>-5775.311757456187</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578562</v>
+        <v>-5775.311757456187</v>
       </c>
       <c r="E6" t="n">
-        <v>-63147.28336461783</v>
+        <v>-77957.30020373173</v>
       </c>
       <c r="F6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="G6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="H6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="I6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="J6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="K6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="L6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="M6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="N6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="O6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
       <c r="P6" t="n">
-        <v>69952.71663538224</v>
+        <v>55142.69979626834</v>
       </c>
     </row>
   </sheetData>
